--- a/Banco Central/13/1/2/1/Operaciones financieras 2005 a 2021 - Trimestral.xlsx
+++ b/Banco Central/13/1/2/1/Operaciones financieras 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6479,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>796092</v>
+        <v>796111</v>
       </c>
       <c r="Q66">
         <v>3098925</v>
@@ -6512,13 +6515,102 @@
         <v>3069594</v>
       </c>
       <c r="AA66">
-        <v>-79504</v>
+        <v>-79486</v>
       </c>
       <c r="AB66">
-        <v>-1488031</v>
+        <v>-1488050</v>
       </c>
       <c r="AC66">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>-691645</v>
+      </c>
+      <c r="C67">
+        <v>586638</v>
+      </c>
+      <c r="D67">
+        <v>971949</v>
+      </c>
+      <c r="E67">
+        <v>385310</v>
+      </c>
+      <c r="F67">
+        <v>-2079830</v>
+      </c>
+      <c r="G67">
+        <v>2982311</v>
+      </c>
+      <c r="H67">
+        <v>5062140</v>
+      </c>
+      <c r="I67">
+        <v>2987</v>
+      </c>
+      <c r="J67">
+        <v>798558</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>3522411</v>
+      </c>
+      <c r="Q67">
+        <v>2435236</v>
+      </c>
+      <c r="R67">
+        <v>2454077</v>
+      </c>
+      <c r="S67">
+        <v>2454077</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>18841</v>
+      </c>
+      <c r="V67">
+        <v>1164525</v>
+      </c>
+      <c r="W67">
+        <v>2515376</v>
+      </c>
+      <c r="X67">
+        <v>2515376</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1350852</v>
+      </c>
+      <c r="AA67">
+        <v>-77349</v>
+      </c>
+      <c r="AB67">
+        <v>-4214056</v>
+      </c>
+      <c r="AC67">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
